--- a/doc/poster/assets/scalable_random_weighted_sampler.xlsx
+++ b/doc/poster/assets/scalable_random_weighted_sampler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/Projects/dl4cvproject/doc/poster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/Projects/dl4cvproject/doc/poster/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -259,11 +259,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-68915904"/>
-        <c:axId val="-68913584"/>
+        <c:axId val="1164547648"/>
+        <c:axId val="1201150736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-68915904"/>
+        <c:axId val="1164547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-68913584"/>
+        <c:crossAx val="1201150736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -314,7 +314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-68913584"/>
+        <c:axId val="1201150736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-68915904"/>
+        <c:crossAx val="1164547648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -582,11 +582,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-95694080"/>
-        <c:axId val="-68899056"/>
+        <c:axId val="1131154048"/>
+        <c:axId val="1131156096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-95694080"/>
+        <c:axId val="1131154048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-68899056"/>
+        <c:crossAx val="1131156096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-68899056"/>
+        <c:axId val="1131156096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-95694080"/>
+        <c:crossAx val="1131154048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -906,11 +906,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-68879968"/>
-        <c:axId val="-68877216"/>
+        <c:axId val="1163418256"/>
+        <c:axId val="1164851792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-68879968"/>
+        <c:axId val="1163418256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-68877216"/>
+        <c:crossAx val="1164851792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -961,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-68877216"/>
+        <c:axId val="1164851792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1011,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-68879968"/>
+        <c:crossAx val="1163418256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1229,11 +1229,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-67981680"/>
-        <c:axId val="-67979360"/>
+        <c:axId val="1164494208"/>
+        <c:axId val="1203059472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-67981680"/>
+        <c:axId val="1164494208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-67979360"/>
+        <c:crossAx val="1203059472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-67979360"/>
+        <c:axId val="1203059472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1334,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-67981680"/>
+        <c:crossAx val="1164494208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3946,7 +3946,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
